--- a/تقاييم/تطبيقات.xlsx
+++ b/تقاييم/تطبيقات.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suhaib\Desktop\اتتمة_العمليات_الحكومية\تقاييم\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEDE054-A271-4422-92F9-92F404E3A657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C614F4AE-3A1E-49D2-9C19-EF85255BF211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="تطبيق تحضير قيم العطاء" sheetId="1" r:id="rId1"/>
+    <sheet name="تطبيق تعاميم المحروقات" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="27">
-  <si>
-    <t>مشروع اتمتتة العلميات الحكومية</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="43">
   <si>
     <t xml:space="preserve">
 تطبيق تحضير قيم العطاء
@@ -109,13 +107,65 @@
   </si>
   <si>
     <t xml:space="preserve">تعليمات المناقصات </t>
+  </si>
+  <si>
+    <t>مشروع اتمتتة العمليات الحكومية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">السنة </t>
+  </si>
+  <si>
+    <t>الشهر</t>
+  </si>
+  <si>
+    <t>رقم</t>
+  </si>
+  <si>
+    <t>الديزل</t>
+  </si>
+  <si>
+    <t>تطبيق تعاميم المحروقات</t>
+  </si>
+  <si>
+    <t>حسب التعاميم</t>
+  </si>
+  <si>
+    <t>الاسفلت</t>
+  </si>
+  <si>
+    <t>زيت الوقود</t>
+  </si>
+  <si>
+    <t>دينار/طن</t>
+  </si>
+  <si>
+    <t>المطابقة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              المسمى الوظيفي: </t>
+  </si>
+  <si>
+    <t>نعم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هل وفر التطبيق الوقت مقارنة بالطريقة التقليدية  في اداء العملية اعلاه </t>
+  </si>
+  <si>
+    <t>لا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  ملاحظات:</t>
+  </si>
+  <si>
+    <t>فلس/لتر</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +212,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -171,7 +244,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -259,11 +332,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -314,6 +415,63 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -323,52 +481,55 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -482,6 +643,111 @@
         <a:xfrm flipH="1">
           <a:off x="0" y="265043"/>
           <a:ext cx="737149" cy="546652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14972</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>370805</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72328506-C3FD-4975-9184-B37CCE846A41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7399558" y="287979"/>
+          <a:ext cx="732371" cy="546652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>125640</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>384503</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1554D5BF-CA1C-41AE-BF78-C946697198E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="0" y="301677"/>
+          <a:ext cx="732052" cy="551749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -758,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B30" sqref="A30:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,54 +1039,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="A1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="A2" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
+      <c r="D4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -830,9 +1096,9 @@
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -854,186 +1120,186 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+        <v>19</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
       <c r="I7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="C9" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="38"/>
       <c r="G9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="29" t="s">
         <v>15</v>
       </c>
+      <c r="H9" s="31" t="s">
+        <v>14</v>
+      </c>
       <c r="I9" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="O9" s="36" t="s">
-        <v>24</v>
+      <c r="O9" s="21" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
       <c r="G10" s="11">
         <v>0.01</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="32">
+      <c r="H10" s="32"/>
+      <c r="I10" s="34">
         <v>35000</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+        <v>4</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+        <v>4</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="11">
         <v>0.02</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
       <c r="G13" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H13" s="30"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+        <v>4</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="18">
         <v>0.03</v>
       </c>
-      <c r="H14" s="31"/>
+      <c r="H14" s="33"/>
       <c r="I14" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25"/>
+        <v>4</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
+        <v>4</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
@@ -1047,167 +1313,167 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
+      <c r="A18" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="C19" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="38"/>
       <c r="G19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="29" t="s">
         <v>15</v>
       </c>
+      <c r="H19" s="31" t="s">
+        <v>14</v>
+      </c>
       <c r="I19" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
+        <v>4</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
       <c r="G20" s="11">
         <v>0.01</v>
       </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="32">
+      <c r="H20" s="32"/>
+      <c r="I20" s="34">
         <v>75000</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+        <v>4</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
       <c r="G21" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+        <v>4</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
       <c r="G22" s="11">
         <v>0.02</v>
       </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+        <v>4</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
       <c r="G23" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H23" s="30"/>
+      <c r="H23" s="32"/>
       <c r="I23" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
+        <v>4</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
       <c r="G24" s="18">
         <v>0.03</v>
       </c>
-      <c r="H24" s="31"/>
+      <c r="H24" s="33"/>
       <c r="I24" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25"/>
+        <v>4</v>
+      </c>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
     </row>
     <row r="26" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
+        <v>4</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
@@ -1221,194 +1487,247 @@
       <c r="I27" s="15"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
+      <c r="A28" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="28"/>
+      <c r="C29" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="38"/>
       <c r="G29" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="29" t="s">
         <v>15</v>
       </c>
+      <c r="H29" s="31" t="s">
+        <v>14</v>
+      </c>
       <c r="I29" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
+        <v>4</v>
+      </c>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
       <c r="G30" s="11">
         <v>0.01</v>
       </c>
-      <c r="H30" s="30"/>
-      <c r="I30" s="32">
+      <c r="H30" s="32"/>
+      <c r="I30" s="34">
         <v>84000</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
+        <v>4</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
       <c r="G31" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H31" s="30"/>
-      <c r="I31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
+        <v>4</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
       <c r="G32" s="11">
         <v>0.02</v>
       </c>
-      <c r="H32" s="30"/>
-      <c r="I32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
+        <v>4</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
       <c r="G33" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H33" s="30"/>
+      <c r="H33" s="32"/>
       <c r="I33" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
+        <v>4</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
       <c r="G34" s="18">
         <v>0.03</v>
       </c>
-      <c r="H34" s="31"/>
+      <c r="H34" s="33"/>
       <c r="I34" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="24"/>
-      <c r="I35" s="25"/>
+        <v>4</v>
+      </c>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="35"/>
+      <c r="I35" s="36"/>
     </row>
     <row r="36" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
+        <v>4</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="G38:I39"/>
+    <mergeCell ref="A38:F39"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:H34"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="H19:H24"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="D4:F5"/>
@@ -1425,62 +1744,548 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H9:H14"/>
     <mergeCell ref="I10:I12"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="H19:H24"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G38:I39"/>
-    <mergeCell ref="A38:F39"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:H34"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="I30:I32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00880A81-50F2-4F65-9B16-189233425CE5}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+    </row>
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+    </row>
+    <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="43"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="54"/>
+    </row>
+    <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="54"/>
+    </row>
+    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="20"/>
+      <c r="C23" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="20"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+    </row>
+    <row r="25" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="E23:I25"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A2:K3"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B8:H8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/تقاييم/تطبيقات.xlsx
+++ b/تقاييم/تطبيقات.xlsx
@@ -8,25 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suhaib\Desktop\اتتمة_العمليات_الحكومية\تقاييم\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C614F4AE-3A1E-49D2-9C19-EF85255BF211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF53EE3F-C125-4992-9A6D-66BC6F01064A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="تطبيق تحضير قيم العطاء" sheetId="1" r:id="rId1"/>
-    <sheet name="تطبيق تعاميم المحروقات" sheetId="2" r:id="rId2"/>
+    <sheet name="دورات ابداعية" sheetId="5" r:id="rId1"/>
+    <sheet name="دورات تقنية" sheetId="4" r:id="rId2"/>
+    <sheet name="تطبيق تحضير قيم العطاء" sheetId="1" r:id="rId3"/>
+    <sheet name="تطبيق تعاميم المحروقات" sheetId="2" r:id="rId4"/>
+    <sheet name="تكاليف الدورات" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="86">
   <si>
     <t xml:space="preserve">
 تطبيق تحضير قيم العطاء
@@ -159,13 +170,161 @@
   </si>
   <si>
     <t>فلس/لتر</t>
+  </si>
+  <si>
+    <t>الرقم</t>
+  </si>
+  <si>
+    <t>الدورات التدريبة  المستخدمة في المشروع والكلف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الرقم </t>
+  </si>
+  <si>
+    <t>Responsive Web Design</t>
+  </si>
+  <si>
+    <t>الجهة</t>
+  </si>
+  <si>
+    <t>FreeCodeCamp</t>
+  </si>
+  <si>
+    <t>مجاناً</t>
+  </si>
+  <si>
+    <t>اسم الدورة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scientific Computing With Python </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Django 2.2 &amp; python | The Ultimate Web Development Bootcamp
+</t>
+  </si>
+  <si>
+    <t>Udemy</t>
+  </si>
+  <si>
+    <t>الكلفة (دولار)</t>
+  </si>
+  <si>
+    <t>Boostrap 4 From Scratch With 5 Project</t>
+  </si>
+  <si>
+    <t>Python and Django Full Stack Web
+Developer Bootcamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The Complete jQuery Course: From Beginner  To Advanced!
+</t>
+  </si>
+  <si>
+    <t>كلف اضاقية تتعلق بالمشروع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استئجار خادم لرفع الموقع الالكتروني </t>
+  </si>
+  <si>
+    <t xml:space="preserve">استئجار Domain Name </t>
+  </si>
+  <si>
+    <t>Pythonanywehere</t>
+  </si>
+  <si>
+    <t>GoDaddy</t>
+  </si>
+  <si>
+    <t>المجموع الكلي للكلف اعلاه (بالدولار):</t>
+  </si>
+  <si>
+    <t>عنوان الفيديو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Who Even Is An Entrepreneur?: Crash Course Business - Entrepreneurship 
+</t>
+  </si>
+  <si>
+    <t>How to Develop a Business Idea: Crash Course Business</t>
+  </si>
+  <si>
+    <t>Value Proposition and Customer Segments: Crash Course Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Viable Product and Pivoting: Crash Course Business Entrepreneurship 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing Your Product and Getting Feedback: Crash Course Business Entrepreneurship </t>
+  </si>
+  <si>
+    <t>المحتوى</t>
+  </si>
+  <si>
+    <t>تعريف بالريادة</t>
+  </si>
+  <si>
+    <t>من هو الشخص الريادي والمبدع</t>
+  </si>
+  <si>
+    <t>تطوير الافكار الريادية والبداعية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تعريف بالقيمة المضافة 
+مكاسب , حلول مشاكل </t>
+  </si>
+  <si>
+    <t>اختبار الفكرة الابداعية واخذ
+ تغذية راجعة</t>
+  </si>
+  <si>
+    <t>4 simple ways to have a great idea
+ | Richard St. John</t>
+  </si>
+  <si>
+    <t>يوضح طرق تحصيل وتوليد الافكار
+(وجود مشكلة , ملاحظة , الاستماع للاخرين)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+How to Get and Test Startup Ideas - Michael Seibel
+</t>
+  </si>
+  <si>
+    <t>Youtube || CrashCourse</t>
+  </si>
+  <si>
+    <t>طريقة توليد افكار
+عمل المنتج الجوهري 
+اختبار المشروع االمنتج الجوهري وتعديله</t>
+  </si>
+  <si>
+    <t>فيديوهات منوعة لتنمية  التفكير الابداعي والريادي</t>
+  </si>
+  <si>
+    <t>التعريف بالنموذج الاولي 
+او النموذج الجوهري</t>
+  </si>
+  <si>
+    <t>youtube
+ Y Combinator</t>
+  </si>
+  <si>
+    <t>youtube
+Tedx</t>
+  </si>
+  <si>
+    <t>Crash Course Business:
+ Entrepreneurship</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +394,30 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -244,7 +427,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -360,11 +543,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -427,12 +634,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -445,92 +721,93 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,6 +827,216 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>986522</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>365677</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0572DF40-32BE-4B18-B6A9-4F2B685AAFA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9985233028" y="9525"/>
+          <a:ext cx="729472" cy="546652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>23254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>249465</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>384503</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A244D792-689B-4D49-AEFB-1C76CF8DE9A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9992151810" y="23254"/>
+          <a:ext cx="735240" cy="551749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>986522</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>365677</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFAC507F-126A-48AE-AD0C-7F0A1AFF342F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9985233028" y="9525"/>
+          <a:ext cx="729472" cy="546652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>23254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>735240</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>384503</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C056B8-6169-47FA-83B0-8AD35A7BFEAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="0" y="299479"/>
+          <a:ext cx="735240" cy="551749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -654,7 +1141,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1021,6 +1508,607 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5337F5B-A7D0-4F33-A094-36AA4DA3D21D}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="11" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+    </row>
+    <row r="6" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="66"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+    </row>
+    <row r="7" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="67">
+        <v>1</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="68"/>
+    </row>
+    <row r="8" spans="1:12" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="67">
+        <v>2</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="68"/>
+    </row>
+    <row r="9" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="67">
+        <v>3</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="68"/>
+    </row>
+    <row r="10" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="67">
+        <v>4</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="68"/>
+    </row>
+    <row r="11" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="67">
+        <v>5</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="68"/>
+    </row>
+    <row r="12" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="67">
+        <v>6</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="68"/>
+    </row>
+    <row r="13" spans="1:12" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="67">
+        <v>7</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="68"/>
+    </row>
+    <row r="14" spans="1:12" s="80" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="67">
+        <v>8</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85887105-5750-4284-8898-CAECE3131B34}">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="7" customWidth="1"/>
+    <col min="2" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="11" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+    </row>
+    <row r="6" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+    </row>
+    <row r="7" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="73">
+        <v>1</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="73">
+        <v>2</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="67" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="67">
+        <v>3</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="67">
+        <v>84.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="67">
+        <v>4</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="67">
+        <v>84.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="73">
+        <v>5</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="67">
+        <v>84.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="67">
+        <v>6</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="67">
+        <v>84.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+    </row>
+    <row r="14" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+    </row>
+    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="67" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="73">
+        <v>1</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="73">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="73">
+        <v>2</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="73">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="78">
+        <f>F17+F16+F12+F11+F10+F9</f>
+        <v>387.96000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="78"/>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="77"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A19:E20"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O39"/>
   <sheetViews>
@@ -1039,54 +2127,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -1096,9 +2184,9 @@
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -1126,25 +2214,25 @@
       <c r="F7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1154,18 +2242,18 @@
       <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="38" t="s">
+      <c r="D9" s="52"/>
+      <c r="E9" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="38"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="44" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="10" t="s">
@@ -1183,15 +2271,15 @@
       <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="11">
         <v>0.01</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="34">
+      <c r="H10" s="45"/>
+      <c r="I10" s="47">
         <v>35000</v>
       </c>
     </row>
@@ -1202,15 +2290,15 @@
       <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="34"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="47"/>
     </row>
     <row r="12" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -1219,15 +2307,15 @@
       <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="11">
         <v>0.02</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="34"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="47"/>
     </row>
     <row r="13" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1236,14 +2324,14 @@
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H13" s="32"/>
+      <c r="H13" s="45"/>
       <c r="I13" s="13" t="s">
         <v>9</v>
       </c>
@@ -1255,14 +2343,14 @@
       <c r="B14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
       <c r="G14" s="18">
         <v>0.03</v>
       </c>
-      <c r="H14" s="33"/>
+      <c r="H14" s="46"/>
       <c r="I14" s="14" t="s">
         <v>11</v>
       </c>
@@ -1274,15 +2362,15 @@
       <c r="B15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="35" t="s">
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="40"/>
     </row>
     <row r="16" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1291,15 +2379,15 @@
       <c r="B16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="36" t="s">
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
@@ -1313,17 +2401,17 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
     </row>
     <row r="19" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
@@ -1332,18 +2420,18 @@
       <c r="B19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38" t="s">
+      <c r="D19" s="43"/>
+      <c r="E19" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="38"/>
+      <c r="F19" s="43"/>
       <c r="G19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="44" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="10" t="s">
@@ -1357,15 +2445,15 @@
       <c r="B20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="11">
         <v>0.01</v>
       </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="34">
+      <c r="H20" s="45"/>
+      <c r="I20" s="47">
         <v>75000</v>
       </c>
     </row>
@@ -1376,15 +2464,15 @@
       <c r="B21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H21" s="32"/>
-      <c r="I21" s="34"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="47"/>
     </row>
     <row r="22" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -1393,15 +2481,15 @@
       <c r="B22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="11">
         <v>0.02</v>
       </c>
-      <c r="H22" s="32"/>
-      <c r="I22" s="34"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="47"/>
     </row>
     <row r="23" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1410,14 +2498,14 @@
       <c r="B23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H23" s="32"/>
+      <c r="H23" s="45"/>
       <c r="I23" s="13" t="s">
         <v>9</v>
       </c>
@@ -1429,14 +2517,14 @@
       <c r="B24" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
       <c r="G24" s="18">
         <v>0.03</v>
       </c>
-      <c r="H24" s="33"/>
+      <c r="H24" s="46"/>
       <c r="I24" s="14" t="s">
         <v>21</v>
       </c>
@@ -1448,15 +2536,15 @@
       <c r="B25" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="35" t="s">
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="35"/>
-      <c r="I25" s="36"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40"/>
     </row>
     <row r="26" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -1465,15 +2553,15 @@
       <c r="B26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="36" t="s">
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
@@ -1487,17 +2575,17 @@
       <c r="I27" s="15"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
     </row>
     <row r="29" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
@@ -1506,18 +2594,18 @@
       <c r="B29" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38" t="s">
+      <c r="D29" s="43"/>
+      <c r="E29" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="38"/>
+      <c r="F29" s="43"/>
       <c r="G29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="H29" s="44" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="10" t="s">
@@ -1531,15 +2619,15 @@
       <c r="B30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
       <c r="G30" s="11">
         <v>0.01</v>
       </c>
-      <c r="H30" s="32"/>
-      <c r="I30" s="34">
+      <c r="H30" s="45"/>
+      <c r="I30" s="47">
         <v>84000</v>
       </c>
     </row>
@@ -1550,15 +2638,15 @@
       <c r="B31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
       <c r="G31" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H31" s="32"/>
-      <c r="I31" s="34"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="47"/>
     </row>
     <row r="32" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -1567,15 +2655,15 @@
       <c r="B32" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="11">
         <v>0.02</v>
       </c>
-      <c r="H32" s="32"/>
-      <c r="I32" s="34"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="47"/>
     </row>
     <row r="33" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -1584,14 +2672,14 @@
       <c r="B33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
       <c r="G33" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H33" s="32"/>
+      <c r="H33" s="45"/>
       <c r="I33" s="13" t="s">
         <v>9</v>
       </c>
@@ -1603,14 +2691,14 @@
       <c r="B34" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
       <c r="G34" s="18">
         <v>0.03</v>
       </c>
-      <c r="H34" s="33"/>
+      <c r="H34" s="46"/>
       <c r="I34" s="14" t="s">
         <v>22</v>
       </c>
@@ -1622,15 +2710,15 @@
       <c r="B35" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="35" t="s">
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="35"/>
-      <c r="I35" s="36"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="40"/>
     </row>
     <row r="36" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -1639,42 +2727,95 @@
       <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="36" t="s">
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="39" t="s">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I3"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="H19:H24"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="G38:I39"/>
     <mergeCell ref="A38:F39"/>
     <mergeCell ref="G7:H7"/>
@@ -1691,59 +2832,6 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="I30:I32"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="H19:H24"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="D4:F5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I3"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="I10:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1751,12 +2839,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00880A81-50F2-4F65-9B16-189233425CE5}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1772,77 +2860,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
@@ -1860,102 +2948,102 @@
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="43" t="s">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53" t="s">
+      <c r="D9" s="54"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51" t="s">
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="51" t="s">
+      <c r="J9" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="54" t="s">
+      <c r="K9" s="58" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="55" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="58" t="s">
+      <c r="H10" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="55" t="s">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="58" t="s">
+      <c r="H11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="58"/>
     </row>
     <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -1966,9 +3054,9 @@
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="22"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="44"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
@@ -1985,9 +3073,9 @@
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="22"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="44"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
@@ -2004,9 +3092,9 @@
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="44"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
@@ -2023,9 +3111,9 @@
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="44"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
@@ -2042,9 +3130,9 @@
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="44"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
@@ -2061,9 +3149,9 @@
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="44"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
@@ -2080,9 +3168,9 @@
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="44"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
@@ -2099,9 +3187,9 @@
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="44"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
@@ -2118,9 +3206,9 @@
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="44"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
@@ -2137,9 +3225,9 @@
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="44"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
@@ -2149,41 +3237,41 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="20"/>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="20"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
     </row>
     <row r="25" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="25" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="4"/>
@@ -2198,74 +3286,75 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B8:H8"/>
     <mergeCell ref="E23:I25"/>
     <mergeCell ref="A27:K28"/>
     <mergeCell ref="A4:K5"/>
@@ -2282,10 +3371,29 @@
     <mergeCell ref="A2:K3"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A177FEDA-3B79-424B-BAC7-7DCE34BF4973}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/تقاييم/تطبيقات.xlsx
+++ b/تقاييم/تطبيقات.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suhaib\Desktop\اتتمة_العمليات_الحكومية\تقاييم\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF53EE3F-C125-4992-9A6D-66BC6F01064A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB3A36D-7251-418C-BC63-F015E5C12CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="دورات ابداعية" sheetId="5" r:id="rId1"/>
-    <sheet name="دورات تقنية" sheetId="4" r:id="rId2"/>
-    <sheet name="تطبيق تحضير قيم العطاء" sheetId="1" r:id="rId3"/>
-    <sheet name="تطبيق تعاميم المحروقات" sheetId="2" r:id="rId4"/>
-    <sheet name="تكاليف الدورات" sheetId="3" r:id="rId5"/>
+    <sheet name="تطبيق حساب فرق التواريخ" sheetId="6" r:id="rId1"/>
+    <sheet name="دورات ابداعية" sheetId="5" r:id="rId2"/>
+    <sheet name="دورات تقنية" sheetId="4" r:id="rId3"/>
+    <sheet name="تطبيق تحضير قيم العطاء" sheetId="1" r:id="rId4"/>
+    <sheet name="تطبيق تعاميم المحروقات" sheetId="2" r:id="rId5"/>
+    <sheet name="تكاليف الدورات" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="97">
   <si>
     <t xml:space="preserve">
 تطبيق تحضير قيم العطاء
@@ -318,13 +319,48 @@
   <si>
     <t>Crash Course Business:
  Entrepreneurship</t>
+  </si>
+  <si>
+    <t>تاريخ امر المباشرة</t>
+  </si>
+  <si>
+    <t>تطبيق حساب فرق التواريخ</t>
+  </si>
+  <si>
+    <t>تاريخ انهاء الاعمال</t>
+  </si>
+  <si>
+    <t>تمديد اللجنة</t>
+  </si>
+  <si>
+    <t>تمديد الصيف
+والشتاء</t>
+  </si>
+  <si>
+    <t>الحساب العادي</t>
+  </si>
+  <si>
+    <t>عدد ايام التاخير</t>
+  </si>
+  <si>
+    <t>17/7/2020</t>
+  </si>
+  <si>
+    <t>مدة العطاء
+(بالايام)</t>
+  </si>
+  <si>
+    <t>240 </t>
+  </si>
+  <si>
+    <t>17/12/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,6 +454,32 @@
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Webdings"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF454545"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -427,7 +489,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -567,11 +629,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -667,6 +747,175 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -676,54 +925,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -742,71 +943,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -827,6 +964,111 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>313593</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>156857</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>380043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF06A99B-6D9A-4076-9C76-CF816C2B7A02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7208228" y="302314"/>
+          <a:ext cx="737149" cy="546652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>265043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>129014</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>347869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1EFD43D-8E2A-4A55-9A22-C9F7E8EB9E7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="0" y="265043"/>
+          <a:ext cx="737149" cy="549551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -931,7 +1173,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1036,7 +1278,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1141,7 +1383,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1508,10 +1750,717 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8FA5B55-8EE2-4FE3-A3D0-B3581581633A}">
+  <dimension ref="A1:Q39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="13" width="6.7109375" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="C4" s="6"/>
+      <c r="D4" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="C5" s="6"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="I7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="59"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="2"/>
+      <c r="Q9" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="C10" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+    </row>
+    <row r="11" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="50">
+        <f>N11-G11-F11-E11</f>
+        <v>3</v>
+      </c>
+      <c r="E11" s="37">
+        <v>10</v>
+      </c>
+      <c r="F11" s="37">
+        <v>20</v>
+      </c>
+      <c r="G11" s="37">
+        <v>120</v>
+      </c>
+      <c r="H11" s="57">
+        <v>43836</v>
+      </c>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57">
+        <v>43831</v>
+      </c>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="49">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="50">
+        <f>N12-G12-F12-E12</f>
+        <v>9</v>
+      </c>
+      <c r="E12" s="37">
+        <v>15</v>
+      </c>
+      <c r="F12" s="37">
+        <v>15</v>
+      </c>
+      <c r="G12" s="37">
+        <v>180</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="57">
+        <v>43811</v>
+      </c>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="49">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="50">
+        <f>240-20-150</f>
+        <v>70</v>
+      </c>
+      <c r="E13" s="53">
+        <v>20</v>
+      </c>
+      <c r="F13" s="53">
+        <v>0</v>
+      </c>
+      <c r="G13" s="53">
+        <v>150</v>
+      </c>
+      <c r="H13" s="57">
+        <v>44623</v>
+      </c>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57">
+        <v>44384</v>
+      </c>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="101" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="50">
+        <v>0</v>
+      </c>
+      <c r="E14" s="53">
+        <v>0</v>
+      </c>
+      <c r="F14" s="53">
+        <v>0</v>
+      </c>
+      <c r="G14" s="53">
+        <v>120</v>
+      </c>
+      <c r="H14" s="57">
+        <v>44655</v>
+      </c>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="49">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+    </row>
+    <row r="16" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+    </row>
+    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+    </row>
+    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+    </row>
+    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="35"/>
+      <c r="D22" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+    </row>
+    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="35"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+    </row>
+    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+    </row>
+    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+    </row>
+    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="3:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="3:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="3:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="3:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="D4:J5"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B26:L27"/>
+    <mergeCell ref="F22:L24"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A2:M3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5337F5B-A7D0-4F33-A094-36AA4DA3D21D}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1528,15 +2477,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -1544,13 +2493,13 @@
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -1558,40 +2507,40 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
@@ -1599,155 +2548,167 @@
       <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="65" t="s">
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="66"/>
+      <c r="G6" s="68"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
     </row>
     <row r="7" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="67">
+      <c r="A7" s="40">
         <v>1</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="81" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="68"/>
+      <c r="G7" s="65"/>
     </row>
     <row r="8" spans="1:12" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67">
+      <c r="A8" s="40">
         <v>2</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="68" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="68"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67">
+      <c r="A9" s="40">
         <v>3</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="68" t="s">
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="68"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67">
+      <c r="A10" s="40">
         <v>4</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="76" t="s">
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="68"/>
+      <c r="G10" s="65"/>
     </row>
     <row r="11" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="67">
+      <c r="A11" s="40">
         <v>5</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="76" t="s">
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="68"/>
+      <c r="G11" s="65"/>
     </row>
     <row r="12" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67">
+      <c r="A12" s="40">
         <v>6</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="76" t="s">
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="68"/>
+      <c r="G12" s="65"/>
     </row>
     <row r="13" spans="1:12" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="67">
+      <c r="A13" s="40">
         <v>7</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="79" t="s">
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="76" t="s">
+      <c r="F13" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="68"/>
-    </row>
-    <row r="14" spans="1:12" s="80" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="67">
+      <c r="G13" s="65"/>
+    </row>
+    <row r="14" spans="1:12" s="44" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40">
         <v>8</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="82" t="s">
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="76" t="s">
+      <c r="F14" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="68"/>
+      <c r="G14" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="J6:L6"/>
@@ -1759,18 +2720,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A3:G4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1779,7 +2728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85887105-5750-4284-8898-CAECE3131B34}">
   <dimension ref="A1:L21"/>
   <sheetViews>
@@ -1796,15 +2745,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -1812,13 +2761,13 @@
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -1826,40 +2775,40 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
@@ -1867,239 +2816,239 @@
       <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="65" t="s">
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="39" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
     </row>
     <row r="7" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="73">
+      <c r="A7" s="41">
         <v>1</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="67" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="40" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="73">
+      <c r="A8" s="41">
         <v>2</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="67" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="40" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67">
+      <c r="A9" s="40">
         <v>3</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="67" t="s">
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="67">
+      <c r="F9" s="40">
         <v>84.99</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67">
+      <c r="A10" s="40">
         <v>4</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="67" t="s">
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="67">
+      <c r="F10" s="40">
         <v>84.99</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="73">
+      <c r="A11" s="41">
         <v>5</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="67" t="s">
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="40">
         <v>84.99</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67">
+      <c r="A12" s="40">
         <v>6</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="67" t="s">
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="67">
+      <c r="F12" s="40">
         <v>84.99</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="63"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="67" t="s">
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="67" t="s">
+      <c r="F15" s="40" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="73">
+      <c r="A16" s="41">
         <v>1</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="73" t="s">
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="73">
+      <c r="F16" s="41">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="73">
+      <c r="A17" s="41">
         <v>2</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="73" t="s">
+      <c r="C17" s="76"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="73">
+      <c r="F17" s="41">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="78">
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="73">
         <f>F17+F16+F12+F11+F10+F9</f>
         <v>387.96000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="78"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="73"/>
     </row>
     <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="77"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="A19:E20"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A3:G4"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2108,7 +3057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O39"/>
   <sheetViews>
@@ -2127,54 +3076,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -2184,9 +3133,9 @@
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -2214,25 +3163,25 @@
       <c r="F7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
       <c r="I7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2242,18 +3191,18 @@
       <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="43" t="s">
+      <c r="D9" s="56"/>
+      <c r="E9" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="43"/>
+      <c r="F9" s="89"/>
       <c r="G9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="82" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="10" t="s">
@@ -2271,15 +3220,15 @@
       <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
       <c r="G10" s="11">
         <v>0.01</v>
       </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="47">
+      <c r="H10" s="83"/>
+      <c r="I10" s="85">
         <v>35000</v>
       </c>
     </row>
@@ -2290,15 +3239,15 @@
       <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
       <c r="G11" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="47"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="85"/>
     </row>
     <row r="12" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -2307,15 +3256,15 @@
       <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
       <c r="G12" s="11">
         <v>0.02</v>
       </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="47"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="85"/>
     </row>
     <row r="13" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -2324,14 +3273,14 @@
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
       <c r="G13" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H13" s="45"/>
+      <c r="H13" s="83"/>
       <c r="I13" s="13" t="s">
         <v>9</v>
       </c>
@@ -2343,14 +3292,14 @@
       <c r="B14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
       <c r="G14" s="18">
         <v>0.03</v>
       </c>
-      <c r="H14" s="46"/>
+      <c r="H14" s="84"/>
       <c r="I14" s="14" t="s">
         <v>11</v>
       </c>
@@ -2362,15 +3311,15 @@
       <c r="B15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39" t="s">
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="40"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="87"/>
     </row>
     <row r="16" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -2379,15 +3328,15 @@
       <c r="B16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="40" t="s">
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
@@ -2401,17 +3350,17 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
     </row>
     <row r="19" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
@@ -2420,18 +3369,18 @@
       <c r="B19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43" t="s">
+      <c r="D19" s="89"/>
+      <c r="E19" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="43"/>
+      <c r="F19" s="89"/>
       <c r="G19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="82" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="10" t="s">
@@ -2445,15 +3394,15 @@
       <c r="B20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
       <c r="G20" s="11">
         <v>0.01</v>
       </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="47">
+      <c r="H20" s="83"/>
+      <c r="I20" s="85">
         <v>75000</v>
       </c>
     </row>
@@ -2464,15 +3413,15 @@
       <c r="B21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
       <c r="G21" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H21" s="45"/>
-      <c r="I21" s="47"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="85"/>
     </row>
     <row r="22" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -2481,15 +3430,15 @@
       <c r="B22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
       <c r="G22" s="11">
         <v>0.02</v>
       </c>
-      <c r="H22" s="45"/>
-      <c r="I22" s="47"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="85"/>
     </row>
     <row r="23" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -2498,14 +3447,14 @@
       <c r="B23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
       <c r="G23" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H23" s="45"/>
+      <c r="H23" s="83"/>
       <c r="I23" s="13" t="s">
         <v>9</v>
       </c>
@@ -2517,14 +3466,14 @@
       <c r="B24" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
       <c r="G24" s="18">
         <v>0.03</v>
       </c>
-      <c r="H24" s="46"/>
+      <c r="H24" s="84"/>
       <c r="I24" s="14" t="s">
         <v>21</v>
       </c>
@@ -2536,15 +3485,15 @@
       <c r="B25" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="39" t="s">
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="40"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="87"/>
     </row>
     <row r="26" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -2553,15 +3502,15 @@
       <c r="B26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="40" t="s">
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
@@ -2575,17 +3524,17 @@
       <c r="I27" s="15"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
     </row>
     <row r="29" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
@@ -2594,18 +3543,18 @@
       <c r="B29" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43" t="s">
+      <c r="D29" s="89"/>
+      <c r="E29" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="43"/>
+      <c r="F29" s="89"/>
       <c r="G29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="44" t="s">
+      <c r="H29" s="82" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="10" t="s">
@@ -2619,15 +3568,15 @@
       <c r="B30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
       <c r="G30" s="11">
         <v>0.01</v>
       </c>
-      <c r="H30" s="45"/>
-      <c r="I30" s="47">
+      <c r="H30" s="83"/>
+      <c r="I30" s="85">
         <v>84000</v>
       </c>
     </row>
@@ -2638,15 +3587,15 @@
       <c r="B31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
       <c r="G31" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H31" s="45"/>
-      <c r="I31" s="47"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="85"/>
     </row>
     <row r="32" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -2655,15 +3604,15 @@
       <c r="B32" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
       <c r="G32" s="11">
         <v>0.02</v>
       </c>
-      <c r="H32" s="45"/>
-      <c r="I32" s="47"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="85"/>
     </row>
     <row r="33" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -2672,14 +3621,14 @@
       <c r="B33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
       <c r="G33" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H33" s="45"/>
+      <c r="H33" s="83"/>
       <c r="I33" s="13" t="s">
         <v>9</v>
       </c>
@@ -2691,14 +3640,14 @@
       <c r="B34" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
       <c r="G34" s="18">
         <v>0.03</v>
       </c>
-      <c r="H34" s="46"/>
+      <c r="H34" s="84"/>
       <c r="I34" s="14" t="s">
         <v>22</v>
       </c>
@@ -2710,15 +3659,15 @@
       <c r="B35" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="39" t="s">
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="39"/>
-      <c r="I35" s="40"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="87"/>
     </row>
     <row r="36" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -2727,49 +3676,88 @@
       <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="40" t="s">
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="35" t="s">
+      <c r="A38" s="93"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
+      <c r="A39" s="93"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="D4:F5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I3"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="G38:I39"/>
+    <mergeCell ref="A38:F39"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:H34"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="H19:H24"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E9:F9"/>
@@ -2786,52 +3774,13 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="H19:H24"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G38:I39"/>
-    <mergeCell ref="A38:F39"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:H34"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I3"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="I10:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2839,12 +3788,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00880A81-50F2-4F65-9B16-189233425CE5}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2860,77 +3809,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
@@ -2948,56 +3897,56 @@
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="59" t="s">
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
       <c r="K7" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54" t="s">
+      <c r="B9" s="95"/>
+      <c r="C9" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="56" t="s">
+      <c r="D9" s="95"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54" t="s">
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="54" t="s">
+      <c r="J9" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="58" t="s">
+      <c r="K9" s="99" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="31" t="s">
         <v>34</v>
       </c>
@@ -3016,13 +3965,13 @@
       <c r="H10" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="58"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="99"/>
     </row>
     <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="95"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="31" t="s">
         <v>35</v>
       </c>
@@ -3041,9 +3990,9 @@
       <c r="H11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="58"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="99"/>
     </row>
     <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -3237,38 +4186,38 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="20"/>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="20"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
     </row>
     <row r="25" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
@@ -3286,32 +4235,32 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
@@ -3354,10 +4303,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C23:C25"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="E23:I25"/>
     <mergeCell ref="A27:K28"/>
     <mergeCell ref="A4:K5"/>
+    <mergeCell ref="D23:D25"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A9:B11"/>
     <mergeCell ref="I7:J7"/>
@@ -3369,8 +4320,6 @@
     <mergeCell ref="K9:K11"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="A2:K3"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C23:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3378,7 +4327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A177FEDA-3B79-424B-BAC7-7DCE34BF4973}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/تقاييم/تطبيقات.xlsx
+++ b/تقاييم/تطبيقات.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suhaib\Desktop\اتتمة_العمليات_الحكومية\تقاييم\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suhaib\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB3A36D-7251-418C-BC63-F015E5C12CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BA7D5C-4926-4945-81AB-97728AAFAD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="100">
   <si>
     <t xml:space="preserve">
 تطبيق تحضير قيم العطاء
@@ -330,9 +330,6 @@
     <t>تاريخ انهاء الاعمال</t>
   </si>
   <si>
-    <t>تمديد اللجنة</t>
-  </si>
-  <si>
     <t>تمديد الصيف
 والشتاء</t>
   </si>
@@ -354,13 +351,26 @@
   </si>
   <si>
     <t>17/12/2021</t>
+  </si>
+  <si>
+    <t>17/7/2021</t>
+  </si>
+  <si>
+    <t>25/1/2021</t>
+  </si>
+  <si>
+    <t>لا يوجد تاخير</t>
+  </si>
+  <si>
+    <t>تمديد
+ اللجنة</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,8 +485,21 @@
       <charset val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="15"/>
-      <color rgb="FF454545"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -651,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -753,9 +776,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -784,52 +804,52 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -838,33 +858,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -874,17 +891,32 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -898,32 +930,11 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -943,8 +954,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -968,15 +985,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>313593</xdr:colOff>
+      <xdr:colOff>86459</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>23891</xdr:rowOff>
+      <xdr:rowOff>16564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>156857</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>215474</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>380043</xdr:rowOff>
+      <xdr:rowOff>372716</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1005,7 +1022,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7208228" y="302314"/>
+          <a:off x="7296151" y="294987"/>
           <a:ext cx="737149" cy="546652"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1751,99 +1768,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8FA5B55-8EE2-4FE3-A3D0-B3581581633A}">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="13" width="6.7109375" customWidth="1"/>
+    <col min="8" max="11" width="6.7109375" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
       <c r="N1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="C4" s="6"/>
-      <c r="D4" s="60" t="s">
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="6"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="C5" s="6"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="6"/>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -1887,10 +1905,10 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="59"/>
+      <c r="C9" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="50"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1903,399 +1921,398 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+    <row r="10" spans="1:17" ht="33" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="46" t="s">
+      <c r="B10" s="58"/>
+      <c r="C10" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="46" t="s">
-        <v>91</v>
+      <c r="D10" s="49" t="s">
+        <v>90</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58" t="s">
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-    </row>
-    <row r="11" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+    </row>
+    <row r="11" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="50">
+      <c r="C11" s="49"/>
+      <c r="D11" s="47">
         <f>N11-G11-F11-E11</f>
         <v>3</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="49">
         <v>10</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="49">
         <v>20</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="49">
         <v>120</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="56">
         <v>43836</v>
       </c>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57">
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56">
         <v>43831</v>
       </c>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="49">
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="97">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
+    <row r="12" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="50">
+      <c r="C12" s="49"/>
+      <c r="D12" s="47">
         <f>N12-G12-F12-E12</f>
         <v>9</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="49">
         <v>15</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="49">
         <v>15</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="49">
         <v>180</v>
       </c>
-      <c r="H12" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="57">
+      <c r="H12" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="56">
         <v>43811</v>
       </c>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="49">
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="97">
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47" t="s">
+    <row r="13" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="50">
+      <c r="C13" s="49"/>
+      <c r="D13" s="47">
         <f>240-20-150</f>
         <v>70</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="49">
         <v>20</v>
       </c>
-      <c r="F13" s="53">
+      <c r="F13" s="49">
         <v>0</v>
       </c>
-      <c r="G13" s="53">
+      <c r="G13" s="49">
         <v>150</v>
       </c>
-      <c r="H13" s="57">
+      <c r="H13" s="56">
         <v>44623</v>
       </c>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57">
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="56">
         <v>44384</v>
       </c>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="101" t="s">
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="98" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="49"/>
+      <c r="D14" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="49">
+        <v>0</v>
+      </c>
+      <c r="F14" s="49">
+        <v>0</v>
+      </c>
+      <c r="G14" s="49">
+        <v>120</v>
+      </c>
+      <c r="H14" s="56">
+        <v>44655</v>
+      </c>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="97">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B15" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="50">
+      <c r="C15" s="49"/>
+      <c r="D15" s="47">
+        <f>N15-G15-E15</f>
+        <v>71</v>
+      </c>
+      <c r="E15" s="49">
+        <v>30</v>
+      </c>
+      <c r="F15" s="49">
         <v>0</v>
       </c>
-      <c r="E14" s="53">
+      <c r="G15" s="49">
+        <v>120</v>
+      </c>
+      <c r="H15" s="56">
+        <v>43781</v>
+      </c>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="56">
+        <v>43590</v>
+      </c>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="99">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="49"/>
+      <c r="D16" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="49">
         <v>0</v>
       </c>
-      <c r="F14" s="53">
-        <v>0</v>
-      </c>
-      <c r="G14" s="53">
-        <v>120</v>
-      </c>
-      <c r="H14" s="57">
-        <v>44655</v>
-      </c>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56" t="s">
+      <c r="F16" s="49">
+        <v>25</v>
+      </c>
+      <c r="G16" s="49">
+        <v>150</v>
+      </c>
+      <c r="H16" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="49">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-    </row>
-    <row r="16" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-    </row>
-    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-    </row>
-    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-    </row>
-    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="35"/>
-      <c r="D22" s="56" t="s">
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="99">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="35"/>
+      <c r="D18" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="56" t="s">
+      <c r="E18" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="62" t="s">
+      <c r="F18" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-    </row>
-    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="35"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-    </row>
-    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-    </row>
-    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="25" t="s">
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+    </row>
+    <row r="19" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="35"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+    </row>
+    <row r="20" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+    </row>
+    <row r="21" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="61" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-    </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-    </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-    </row>
-    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+    </row>
+    <row r="23" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+    </row>
+    <row r="24" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+    </row>
+    <row r="25" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2306,7 +2323,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2317,7 +2334,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2328,7 +2345,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2339,7 +2356,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="3:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2350,7 +2367,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="3:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2361,7 +2378,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="3:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2372,73 +2389,11 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="3:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="D4:J5"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="B26:L27"/>
-    <mergeCell ref="F22:L24"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K12:M12"/>
+  <mergeCells count="23">
+    <mergeCell ref="C4:K5"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
     <mergeCell ref="K11:M11"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H12:J12"/>
@@ -2449,6 +2404,16 @@
     <mergeCell ref="K10:M10"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="A2:M3"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B22:L23"/>
+    <mergeCell ref="F18:L20"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K12:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -2477,15 +2442,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -2493,13 +2458,13 @@
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -2507,40 +2472,40 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
@@ -2548,167 +2513,155 @@
       <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="39" t="s">
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="68"/>
+      <c r="G6" s="62"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
     </row>
     <row r="7" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40">
+      <c r="A7" s="39">
         <v>1</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="67" t="s">
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="65"/>
+      <c r="G7" s="64"/>
     </row>
     <row r="8" spans="1:12" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
+      <c r="A8" s="39">
         <v>2</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="65" t="s">
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="65"/>
+      <c r="G8" s="64"/>
     </row>
     <row r="9" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40">
+      <c r="A9" s="39">
         <v>3</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="65" t="s">
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="65"/>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
+      <c r="A10" s="39">
         <v>4</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="64" t="s">
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="65"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="11" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
+      <c r="A11" s="39">
         <v>5</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="64" t="s">
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="65"/>
+      <c r="G11" s="64"/>
     </row>
     <row r="12" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40">
+      <c r="A12" s="39">
         <v>6</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="64" t="s">
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="65"/>
+      <c r="G12" s="64"/>
     </row>
     <row r="13" spans="1:12" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40">
+      <c r="A13" s="39">
         <v>7</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="43" t="s">
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="64" t="s">
+      <c r="F13" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="65"/>
-    </row>
-    <row r="14" spans="1:12" s="44" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40">
+      <c r="G13" s="64"/>
+    </row>
+    <row r="14" spans="1:12" s="43" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
         <v>8</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="45" t="s">
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="65"/>
+      <c r="G14" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A3:G4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="J6:L6"/>
@@ -2720,6 +2673,18 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2745,15 +2710,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -2761,13 +2726,13 @@
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -2775,40 +2740,40 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
@@ -2816,226 +2781,226 @@
       <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="39" t="s">
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="38" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
-      <c r="J6" s="66" t="s">
+      <c r="J6" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
     </row>
     <row r="7" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41">
+      <c r="A7" s="40">
         <v>1</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="40" t="s">
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="39" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
+      <c r="A8" s="40">
         <v>2</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="40" t="s">
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="39" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40">
+      <c r="A9" s="39">
         <v>3</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="40" t="s">
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="39">
         <v>84.99</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
+      <c r="A10" s="39">
         <v>4</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="40" t="s">
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="39">
         <v>84.99</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41">
+      <c r="A11" s="40">
         <v>5</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="40" t="s">
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="39">
         <v>84.99</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40">
+      <c r="A12" s="39">
         <v>6</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="40" t="s">
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="39">
         <v>84.99</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="40" t="s">
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="39" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41">
+      <c r="A16" s="40">
         <v>1</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="41" t="s">
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="40">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41">
+      <c r="A17" s="40">
         <v>2</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="41" t="s">
+      <c r="C17" s="74"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="40">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="73">
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="72">
         <f>F17+F16+F12+F11+F10+F9</f>
         <v>387.96000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="73"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="72"/>
     </row>
     <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A3:G4"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A19:E20"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="B10:D10"/>
@@ -3044,11 +3009,11 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A19:E20"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3076,54 +3041,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -3133,9 +3098,9 @@
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -3163,25 +3128,25 @@
       <c r="F7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
       <c r="I7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3191,18 +3156,18 @@
       <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="89" t="s">
+      <c r="D9" s="52"/>
+      <c r="E9" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="89"/>
+      <c r="F9" s="84"/>
       <c r="G9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="82" t="s">
+      <c r="H9" s="85" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="10" t="s">
@@ -3220,15 +3185,15 @@
       <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
       <c r="G10" s="11">
         <v>0.01</v>
       </c>
-      <c r="H10" s="83"/>
-      <c r="I10" s="85">
+      <c r="H10" s="86"/>
+      <c r="I10" s="88">
         <v>35000</v>
       </c>
     </row>
@@ -3239,15 +3204,15 @@
       <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
       <c r="G11" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H11" s="83"/>
-      <c r="I11" s="85"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="88"/>
     </row>
     <row r="12" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -3256,15 +3221,15 @@
       <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="11">
         <v>0.02</v>
       </c>
-      <c r="H12" s="83"/>
-      <c r="I12" s="85"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="88"/>
     </row>
     <row r="13" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -3273,14 +3238,14 @@
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
       <c r="G13" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H13" s="83"/>
+      <c r="H13" s="86"/>
       <c r="I13" s="13" t="s">
         <v>9</v>
       </c>
@@ -3292,14 +3257,14 @@
       <c r="B14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
       <c r="G14" s="18">
         <v>0.03</v>
       </c>
-      <c r="H14" s="84"/>
+      <c r="H14" s="87"/>
       <c r="I14" s="14" t="s">
         <v>11</v>
       </c>
@@ -3311,15 +3276,15 @@
       <c r="B15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="86" t="s">
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="86"/>
-      <c r="I15" s="87"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="81"/>
     </row>
     <row r="16" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -3328,15 +3293,15 @@
       <c r="B16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="87" t="s">
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
@@ -3350,17 +3315,17 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
     </row>
     <row r="19" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
@@ -3369,18 +3334,18 @@
       <c r="B19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="89" t="s">
+      <c r="C19" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89" t="s">
+      <c r="D19" s="84"/>
+      <c r="E19" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="89"/>
+      <c r="F19" s="84"/>
       <c r="G19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="82" t="s">
+      <c r="H19" s="85" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="10" t="s">
@@ -3394,15 +3359,15 @@
       <c r="B20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
       <c r="G20" s="11">
         <v>0.01</v>
       </c>
-      <c r="H20" s="83"/>
-      <c r="I20" s="85">
+      <c r="H20" s="86"/>
+      <c r="I20" s="88">
         <v>75000</v>
       </c>
     </row>
@@ -3413,15 +3378,15 @@
       <c r="B21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
       <c r="G21" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H21" s="83"/>
-      <c r="I21" s="85"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="88"/>
     </row>
     <row r="22" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -3430,15 +3395,15 @@
       <c r="B22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
       <c r="G22" s="11">
         <v>0.02</v>
       </c>
-      <c r="H22" s="83"/>
-      <c r="I22" s="85"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="88"/>
     </row>
     <row r="23" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -3447,14 +3412,14 @@
       <c r="B23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
       <c r="G23" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H23" s="83"/>
+      <c r="H23" s="86"/>
       <c r="I23" s="13" t="s">
         <v>9</v>
       </c>
@@ -3466,14 +3431,14 @@
       <c r="B24" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
       <c r="G24" s="18">
         <v>0.03</v>
       </c>
-      <c r="H24" s="84"/>
+      <c r="H24" s="87"/>
       <c r="I24" s="14" t="s">
         <v>21</v>
       </c>
@@ -3485,15 +3450,15 @@
       <c r="B25" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="86" t="s">
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="86"/>
-      <c r="I25" s="87"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="81"/>
     </row>
     <row r="26" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -3502,15 +3467,15 @@
       <c r="B26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="87" t="s">
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
@@ -3524,17 +3489,17 @@
       <c r="I27" s="15"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
     </row>
     <row r="29" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
@@ -3543,18 +3508,18 @@
       <c r="B29" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="89" t="s">
+      <c r="C29" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89" t="s">
+      <c r="D29" s="84"/>
+      <c r="E29" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="89"/>
+      <c r="F29" s="84"/>
       <c r="G29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="82" t="s">
+      <c r="H29" s="85" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="10" t="s">
@@ -3568,15 +3533,15 @@
       <c r="B30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
       <c r="G30" s="11">
         <v>0.01</v>
       </c>
-      <c r="H30" s="83"/>
-      <c r="I30" s="85">
+      <c r="H30" s="86"/>
+      <c r="I30" s="88">
         <v>84000</v>
       </c>
     </row>
@@ -3587,15 +3552,15 @@
       <c r="B31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
       <c r="G31" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H31" s="83"/>
-      <c r="I31" s="85"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="88"/>
     </row>
     <row r="32" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -3604,15 +3569,15 @@
       <c r="B32" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
       <c r="G32" s="11">
         <v>0.02</v>
       </c>
-      <c r="H32" s="83"/>
-      <c r="I32" s="85"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="88"/>
     </row>
     <row r="33" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -3621,14 +3586,14 @@
       <c r="B33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
       <c r="G33" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H33" s="83"/>
+      <c r="H33" s="86"/>
       <c r="I33" s="13" t="s">
         <v>9</v>
       </c>
@@ -3640,14 +3605,14 @@
       <c r="B34" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
       <c r="G34" s="18">
         <v>0.03</v>
       </c>
-      <c r="H34" s="84"/>
+      <c r="H34" s="87"/>
       <c r="I34" s="14" t="s">
         <v>22</v>
       </c>
@@ -3659,15 +3624,15 @@
       <c r="B35" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="86" t="s">
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="86"/>
-      <c r="I35" s="87"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="81"/>
     </row>
     <row r="36" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -3676,42 +3641,95 @@
       <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="87" t="s">
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="93"/>
-      <c r="B38" s="93"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="92" t="s">
+      <c r="A38" s="77"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="92"/>
-      <c r="I38" s="92"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="93"/>
-      <c r="B39" s="93"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
+      <c r="A39" s="77"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I3"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="H19:H24"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="G38:I39"/>
     <mergeCell ref="A38:F39"/>
     <mergeCell ref="G7:H7"/>
@@ -3728,59 +3746,6 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="I30:I32"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="H19:H24"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="D4:F5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I3"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="I10:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3809,77 +3774,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
@@ -3897,56 +3862,56 @@
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="100" t="s">
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="100"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
       <c r="K7" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95" t="s">
+      <c r="B9" s="91"/>
+      <c r="C9" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="97" t="s">
+      <c r="D9" s="91"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95" t="s">
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="95" t="s">
+      <c r="J9" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="99" t="s">
+      <c r="K9" s="95" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
-      <c r="B10" s="95"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
       <c r="C10" s="31" t="s">
         <v>34</v>
       </c>
@@ -3965,13 +3930,13 @@
       <c r="H10" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="99"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="95"/>
     </row>
     <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="95"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="31" t="s">
         <v>35</v>
       </c>
@@ -3990,9 +3955,9 @@
       <c r="H11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="99"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="95"/>
     </row>
     <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -4186,38 +4151,38 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="20"/>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="20"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
     </row>
     <row r="25" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
@@ -4235,32 +4200,32 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
@@ -4303,12 +4268,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="E23:I25"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="A4:K5"/>
-    <mergeCell ref="D23:D25"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A9:B11"/>
     <mergeCell ref="I7:J7"/>
@@ -4320,6 +4279,12 @@
     <mergeCell ref="K9:K11"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="A2:K3"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="E23:I25"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/تقاييم/تطبيقات.xlsx
+++ b/تقاييم/تطبيقات.xlsx
@@ -5,20 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suhaib\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suhaib\Desktop\اتتمة_العمليات_الحكومية\تقاييم\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BA7D5C-4926-4945-81AB-97728AAFAD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A727E9C8-E6EF-481E-9A5F-41E2FC7164C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="تطبيق حساب فرق التواريخ" sheetId="6" r:id="rId1"/>
-    <sheet name="دورات ابداعية" sheetId="5" r:id="rId2"/>
-    <sheet name="دورات تقنية" sheetId="4" r:id="rId3"/>
-    <sheet name="تطبيق تحضير قيم العطاء" sheetId="1" r:id="rId4"/>
-    <sheet name="تطبيق تعاميم المحروقات" sheetId="2" r:id="rId5"/>
-    <sheet name="تكاليف الدورات" sheetId="3" r:id="rId6"/>
+    <sheet name="النتائج" sheetId="7" r:id="rId1"/>
+    <sheet name="تطبيق حساب فرق التواريخ" sheetId="6" r:id="rId2"/>
+    <sheet name="دورات ابداعية" sheetId="5" r:id="rId3"/>
+    <sheet name="دورات تقنية" sheetId="4" r:id="rId4"/>
+    <sheet name="تطبيق تحضير قيم العطاء" sheetId="1" r:id="rId5"/>
+    <sheet name="تطبيق تعاميم المحروقات" sheetId="2" r:id="rId6"/>
+    <sheet name="تكاليف الدورات" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="108">
   <si>
     <t xml:space="preserve">
 تطبيق تحضير قيم العطاء
@@ -364,6 +365,30 @@
   <si>
     <t>تمديد
  اللجنة</t>
+  </si>
+  <si>
+    <t>المستخدم</t>
+  </si>
+  <si>
+    <t>استبيان</t>
+  </si>
+  <si>
+    <t>هل استخدام موقع اتمتتة العمليات ساعد في تقليل الوقت الازم لتنفيذ المهمات ؟؟؟؟</t>
+  </si>
+  <si>
+    <t>هل استخدام موقع اتمتتة العمليات ساعد في تقليل نسبة الخطأ اثناء تنفيذ المهمات ؟؟؟؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هل استخدام  تطبيقات موقع اتمتتة العمليات وامكانية الوصول  سهلة؟؟؟؟ </t>
+  </si>
+  <si>
+    <t>النتائج واثار الافكار الابداعية والابتكارية</t>
+  </si>
+  <si>
+    <t>من 1 الى 10 ما هو تقييمك لموقع اتمتتة العمليات</t>
+  </si>
+  <si>
+    <t>ملاحظات على الموقع:</t>
   </si>
 </sst>
 </file>
@@ -674,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -813,15 +838,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -831,17 +880,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -849,26 +907,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -876,19 +928,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -900,42 +973,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -954,14 +991,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,6 +1016,111 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>532088</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>16564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>618909</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>10766</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1288B27A-58C5-47F3-8CB6-8FBAC1B0BC1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4907019" y="292461"/>
+          <a:ext cx="737149" cy="546652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>265043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>86821</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>166894</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8579AC90-848A-47D6-878D-999E77E85930}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="0" y="265043"/>
+          <a:ext cx="737149" cy="549551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1085,7 +1225,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1190,7 +1330,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1295,7 +1435,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1400,7 +1540,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1767,11 +1907,462 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68DA37D-177C-4DEB-83BE-0457869999B2}">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+    </row>
+    <row r="10" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="101"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+    </row>
+    <row r="11" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="101"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+    </row>
+    <row r="12" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="102"/>
+    </row>
+    <row r="13" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="102"/>
+    </row>
+    <row r="14" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+    </row>
+    <row r="15" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="101"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+    </row>
+    <row r="16" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="101"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+    </row>
+    <row r="17" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="102"/>
+    </row>
+    <row r="18" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="102"/>
+    </row>
+    <row r="19" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+    </row>
+    <row r="20" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+    </row>
+    <row r="21" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="101"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+    </row>
+    <row r="22" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="102"/>
+    </row>
+    <row r="23" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="102"/>
+    </row>
+    <row r="24" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
+    </row>
+    <row r="25" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="101"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+    </row>
+    <row r="26" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="101"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
+    </row>
+    <row r="27" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="56">
+        <v>10</v>
+      </c>
+      <c r="B27" s="56">
+        <v>9</v>
+      </c>
+      <c r="C27" s="56">
+        <v>8</v>
+      </c>
+      <c r="D27" s="56">
+        <v>7</v>
+      </c>
+      <c r="E27" s="56">
+        <v>6</v>
+      </c>
+      <c r="F27" s="56">
+        <v>5</v>
+      </c>
+      <c r="G27" s="56">
+        <v>4</v>
+      </c>
+      <c r="H27" s="56">
+        <v>3</v>
+      </c>
+      <c r="I27" s="56">
+        <v>2</v>
+      </c>
+      <c r="J27" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+    </row>
+    <row r="29" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="103" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="103"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+    </row>
+    <row r="31" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="103"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A30:J31"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="A24:J26"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C17:E18"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="C22:E23"/>
+    <mergeCell ref="F22:H23"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="A9:J11"/>
+    <mergeCell ref="A14:J16"/>
+    <mergeCell ref="A19:J21"/>
+    <mergeCell ref="C12:E13"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:J8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8FA5B55-8EE2-4FE3-A3D0-B3581581633A}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1787,81 +2378,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
       <c r="N1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -1905,10 +2496,10 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="50"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1922,10 +2513,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="33" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="58"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="45" t="s">
         <v>2</v>
       </c>
@@ -1973,17 +2564,17 @@
       <c r="G11" s="49">
         <v>120</v>
       </c>
-      <c r="H11" s="56">
+      <c r="H11" s="57">
         <v>43836</v>
       </c>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56">
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57">
         <v>43831</v>
       </c>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="97">
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="51">
         <v>153</v>
       </c>
     </row>
@@ -2008,17 +2599,17 @@
       <c r="G12" s="49">
         <v>180</v>
       </c>
-      <c r="H12" s="52" t="s">
+      <c r="H12" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="56">
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="57">
         <v>43811</v>
       </c>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="97">
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="51">
         <v>219</v>
       </c>
     </row>
@@ -2043,17 +2634,17 @@
       <c r="G13" s="49">
         <v>150</v>
       </c>
-      <c r="H13" s="56">
+      <c r="H13" s="57">
         <v>44623</v>
       </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="56">
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="57">
         <v>44384</v>
       </c>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="98" t="s">
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="52" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2077,17 +2668,17 @@
       <c r="G14" s="49">
         <v>120</v>
       </c>
-      <c r="H14" s="56">
+      <c r="H14" s="57">
         <v>44655</v>
       </c>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52" t="s">
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="97">
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="51">
         <v>109</v>
       </c>
     </row>
@@ -2112,17 +2703,17 @@
       <c r="G15" s="49">
         <v>120</v>
       </c>
-      <c r="H15" s="56">
+      <c r="H15" s="57">
         <v>43781</v>
       </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="56">
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="57">
         <v>43590</v>
       </c>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="99">
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="53">
         <v>221</v>
       </c>
     </row>
@@ -2146,17 +2737,17 @@
       <c r="G16" s="49">
         <v>150</v>
       </c>
-      <c r="H16" s="52" t="s">
+      <c r="H16" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52" t="s">
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="99">
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="53">
         <v>174</v>
       </c>
     </row>
@@ -2173,44 +2764,44 @@
     </row>
     <row r="18" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="35"/>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
     </row>
     <row r="19" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="35"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
     </row>
     <row r="20" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
     </row>
     <row r="21" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="25" t="s">
@@ -2228,32 +2819,32 @@
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
     </row>
     <row r="23" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
     </row>
     <row r="24" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
@@ -2391,20 +2982,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C4:K5"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="C9:D9"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="B22:L23"/>
@@ -2413,7 +2990,21 @@
     <mergeCell ref="K15:M15"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="K16:M16"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="H14:J14"/>
     <mergeCell ref="K12:M12"/>
+    <mergeCell ref="C4:K5"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -2421,11 +3012,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5337F5B-A7D0-4F33-A094-36AA4DA3D21D}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -2442,15 +3033,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -2458,13 +3049,13 @@
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -2472,40 +3063,40 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
@@ -2516,152 +3107,164 @@
       <c r="A6" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="62"/>
+      <c r="G6" s="68"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
     </row>
     <row r="7" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
         <v>1</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="68" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="64"/>
+      <c r="G7" s="65"/>
     </row>
     <row r="8" spans="1:12" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
         <v>2</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="64" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="64"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
         <v>3</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="64" t="s">
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="64"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39">
         <v>4</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="63" t="s">
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="64"/>
+      <c r="G10" s="65"/>
     </row>
     <row r="11" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>5</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="63" t="s">
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="64"/>
+      <c r="G11" s="65"/>
     </row>
     <row r="12" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
         <v>6</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="63" t="s">
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="64"/>
+      <c r="G12" s="65"/>
     </row>
     <row r="13" spans="1:12" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>7</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
       <c r="E13" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="64"/>
+      <c r="G13" s="65"/>
     </row>
     <row r="14" spans="1:12" s="43" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>8</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
       <c r="E14" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="64"/>
+      <c r="G14" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="J6:L6"/>
@@ -2673,18 +3276,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A3:G4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2693,11 +3284,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85887105-5750-4284-8898-CAECE3131B34}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
@@ -2710,15 +3301,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -2726,13 +3317,13 @@
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -2740,40 +3331,40 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
@@ -2784,11 +3375,11 @@
       <c r="A6" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="38" t="s">
         <v>47</v>
       </c>
@@ -2798,21 +3389,21 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
-      <c r="J6" s="67" t="s">
+      <c r="J6" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
     </row>
     <row r="7" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40">
         <v>1</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="39" t="s">
         <v>48</v>
       </c>
@@ -2824,11 +3415,11 @@
       <c r="A8" s="40">
         <v>2</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="39" t="s">
         <v>48</v>
       </c>
@@ -2840,11 +3431,11 @@
       <c r="A9" s="39">
         <v>3</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
       <c r="E9" s="39" t="s">
         <v>53</v>
       </c>
@@ -2856,11 +3447,11 @@
       <c r="A10" s="39">
         <v>4</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
       <c r="E10" s="39" t="s">
         <v>53</v>
       </c>
@@ -2872,11 +3463,11 @@
       <c r="A11" s="40">
         <v>5</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
       <c r="E11" s="39" t="s">
         <v>53</v>
       </c>
@@ -2888,11 +3479,11 @@
       <c r="A12" s="39">
         <v>6</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="39" t="s">
         <v>53</v>
       </c>
@@ -2902,31 +3493,31 @@
     </row>
     <row r="13" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
     </row>
     <row r="14" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="39" t="s">
         <v>47</v>
       </c>
@@ -2938,11 +3529,11 @@
       <c r="A16" s="40">
         <v>1</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="40" t="s">
         <v>61</v>
       </c>
@@ -2954,11 +3545,11 @@
       <c r="A17" s="40">
         <v>2</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="77"/>
       <c r="E17" s="40" t="s">
         <v>62</v>
       </c>
@@ -2967,25 +3558,25 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="72">
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="73">
         <f>F17+F16+F12+F11+F10+F9</f>
         <v>387.96000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="72"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="73"/>
     </row>
     <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="41"/>
@@ -2996,11 +3587,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A19:E20"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="B10:D10"/>
@@ -3009,11 +3600,11 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A3:G4"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A19:E20"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3022,12 +3613,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="A30:B36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3041,54 +3632,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -3098,9 +3689,9 @@
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -3128,25 +3719,25 @@
       <c r="F7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
       <c r="I7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3156,18 +3747,18 @@
       <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="84" t="s">
+      <c r="D9" s="58"/>
+      <c r="E9" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="84"/>
+      <c r="F9" s="89"/>
       <c r="G9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="85" t="s">
+      <c r="H9" s="82" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="10" t="s">
@@ -3185,15 +3776,15 @@
       <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
       <c r="G10" s="11">
         <v>0.01</v>
       </c>
-      <c r="H10" s="86"/>
-      <c r="I10" s="88">
+      <c r="H10" s="83"/>
+      <c r="I10" s="85">
         <v>35000</v>
       </c>
     </row>
@@ -3204,15 +3795,15 @@
       <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
       <c r="G11" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H11" s="86"/>
-      <c r="I11" s="88"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="85"/>
     </row>
     <row r="12" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -3221,15 +3812,15 @@
       <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
       <c r="G12" s="11">
         <v>0.02</v>
       </c>
-      <c r="H12" s="86"/>
-      <c r="I12" s="88"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="85"/>
     </row>
     <row r="13" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -3238,14 +3829,14 @@
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
       <c r="G13" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H13" s="86"/>
+      <c r="H13" s="83"/>
       <c r="I13" s="13" t="s">
         <v>9</v>
       </c>
@@ -3257,14 +3848,14 @@
       <c r="B14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
       <c r="G14" s="18">
         <v>0.03</v>
       </c>
-      <c r="H14" s="87"/>
+      <c r="H14" s="84"/>
       <c r="I14" s="14" t="s">
         <v>11</v>
       </c>
@@ -3276,15 +3867,15 @@
       <c r="B15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="80" t="s">
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="81"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="87"/>
     </row>
     <row r="16" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -3293,15 +3884,15 @@
       <c r="B16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="81" t="s">
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
@@ -3315,17 +3906,17 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
     </row>
     <row r="19" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
@@ -3334,18 +3925,18 @@
       <c r="B19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="84" t="s">
+      <c r="C19" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84" t="s">
+      <c r="D19" s="89"/>
+      <c r="E19" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="84"/>
+      <c r="F19" s="89"/>
       <c r="G19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="85" t="s">
+      <c r="H19" s="82" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="10" t="s">
@@ -3359,15 +3950,15 @@
       <c r="B20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
       <c r="G20" s="11">
         <v>0.01</v>
       </c>
-      <c r="H20" s="86"/>
-      <c r="I20" s="88">
+      <c r="H20" s="83"/>
+      <c r="I20" s="85">
         <v>75000</v>
       </c>
     </row>
@@ -3378,15 +3969,15 @@
       <c r="B21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
       <c r="G21" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H21" s="86"/>
-      <c r="I21" s="88"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="85"/>
     </row>
     <row r="22" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -3395,15 +3986,15 @@
       <c r="B22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
       <c r="G22" s="11">
         <v>0.02</v>
       </c>
-      <c r="H22" s="86"/>
-      <c r="I22" s="88"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="85"/>
     </row>
     <row r="23" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -3412,14 +4003,14 @@
       <c r="B23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
       <c r="G23" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H23" s="86"/>
+      <c r="H23" s="83"/>
       <c r="I23" s="13" t="s">
         <v>9</v>
       </c>
@@ -3431,14 +4022,14 @@
       <c r="B24" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
       <c r="G24" s="18">
         <v>0.03</v>
       </c>
-      <c r="H24" s="87"/>
+      <c r="H24" s="84"/>
       <c r="I24" s="14" t="s">
         <v>21</v>
       </c>
@@ -3450,15 +4041,15 @@
       <c r="B25" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="80" t="s">
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="80"/>
-      <c r="I25" s="81"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="87"/>
     </row>
     <row r="26" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -3467,15 +4058,15 @@
       <c r="B26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="81" t="s">
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
@@ -3489,17 +4080,17 @@
       <c r="I27" s="15"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="83" t="s">
+      <c r="A28" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
     </row>
     <row r="29" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
@@ -3508,18 +4099,18 @@
       <c r="B29" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="84" t="s">
+      <c r="C29" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84" t="s">
+      <c r="D29" s="89"/>
+      <c r="E29" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="84"/>
+      <c r="F29" s="89"/>
       <c r="G29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="85" t="s">
+      <c r="H29" s="82" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="10" t="s">
@@ -3533,15 +4124,15 @@
       <c r="B30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
       <c r="G30" s="11">
         <v>0.01</v>
       </c>
-      <c r="H30" s="86"/>
-      <c r="I30" s="88">
+      <c r="H30" s="83"/>
+      <c r="I30" s="85">
         <v>84000</v>
       </c>
     </row>
@@ -3552,15 +4143,15 @@
       <c r="B31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
       <c r="G31" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H31" s="86"/>
-      <c r="I31" s="88"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="85"/>
     </row>
     <row r="32" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -3569,15 +4160,15 @@
       <c r="B32" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
       <c r="G32" s="11">
         <v>0.02</v>
       </c>
-      <c r="H32" s="86"/>
-      <c r="I32" s="88"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="85"/>
     </row>
     <row r="33" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -3586,14 +4177,14 @@
       <c r="B33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
       <c r="G33" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H33" s="86"/>
+      <c r="H33" s="83"/>
       <c r="I33" s="13" t="s">
         <v>9</v>
       </c>
@@ -3605,14 +4196,14 @@
       <c r="B34" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
       <c r="G34" s="18">
         <v>0.03</v>
       </c>
-      <c r="H34" s="87"/>
+      <c r="H34" s="84"/>
       <c r="I34" s="14" t="s">
         <v>22</v>
       </c>
@@ -3624,15 +4215,15 @@
       <c r="B35" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="80" t="s">
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="80"/>
-      <c r="I35" s="81"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="87"/>
     </row>
     <row r="36" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -3641,49 +4232,88 @@
       <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="81" t="s">
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="77"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="76" t="s">
+      <c r="A38" s="93"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="77"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
+      <c r="A39" s="93"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="D4:F5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I3"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="G38:I39"/>
+    <mergeCell ref="A38:F39"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:H34"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="H19:H24"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E9:F9"/>
@@ -3700,52 +4330,13 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="H19:H24"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G38:I39"/>
-    <mergeCell ref="A38:F39"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:H34"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I3"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="I10:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3753,12 +4344,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00880A81-50F2-4F65-9B16-189233425CE5}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3774,77 +4365,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
@@ -3862,56 +4453,56 @@
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="96" t="s">
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
       <c r="K7" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91" t="s">
+      <c r="B9" s="95"/>
+      <c r="C9" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="93" t="s">
+      <c r="D9" s="95"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91" t="s">
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="91" t="s">
+      <c r="J9" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="95" t="s">
+      <c r="K9" s="99" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="91"/>
-      <c r="B10" s="91"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="31" t="s">
         <v>34</v>
       </c>
@@ -3930,13 +4521,13 @@
       <c r="H10" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="99"/>
     </row>
     <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="91"/>
-      <c r="B11" s="91"/>
+      <c r="A11" s="95"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="31" t="s">
         <v>35</v>
       </c>
@@ -3955,9 +4546,9 @@
       <c r="H11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="99"/>
     </row>
     <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -4151,38 +4742,38 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="20"/>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="20"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
     </row>
     <row r="25" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
@@ -4200,32 +4791,32 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
@@ -4268,6 +4859,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="E23:I25"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="D23:D25"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A9:B11"/>
     <mergeCell ref="I7:J7"/>
@@ -4279,12 +4876,6 @@
     <mergeCell ref="K9:K11"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="A2:K3"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="E23:I25"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="A4:K5"/>
-    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4292,22 +4883,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A177FEDA-3B79-424B-BAC7-7DCE34BF4973}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView rightToLeft="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/تقاييم/تطبيقات.xlsx
+++ b/تقاييم/تطبيقات.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suhaib\Desktop\اتتمة_العمليات_الحكومية\تقاييم\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\atmattal3mliat\تقاييم\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A727E9C8-E6EF-481E-9A5F-41E2FC7164C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="النتائج" sheetId="7" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="تطبيق تعاميم المحروقات" sheetId="2" r:id="rId6"/>
     <sheet name="تكاليف الدورات" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -394,8 +393,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -850,21 +849,46 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -872,12 +896,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -886,33 +907,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -922,57 +940,45 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -990,13 +996,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1907,93 +1906,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68DA37D-177C-4DEB-83BE-0457869999B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="8" width="7.7109375" customWidth="1"/>
-    <col min="9" max="10" width="9.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="1" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="8" width="7.6640625" customWidth="1"/>
+    <col min="9" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:11" ht="29.25" customHeight="1">
+      <c r="A1" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:11" ht="21.9" customHeight="1">
+      <c r="A2" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+    <row r="3" spans="1:11" ht="21.9" customHeight="1">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+    <row r="4" spans="1:11" ht="21.9" customHeight="1">
+      <c r="A4" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
+    <row r="5" spans="1:11" ht="21.9" customHeight="1">
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="21.9" customHeight="1">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -2005,7 +2004,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="21.9" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
@@ -2014,321 +2013,321 @@
       <c r="G7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
       <c r="J7" s="50" t="s">
         <v>100</v>
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
+    <row r="8" spans="1:11" ht="21.9" customHeight="1">
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="101" t="s">
+    <row r="9" spans="1:11" ht="21.9" customHeight="1">
+      <c r="A9" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-    </row>
-    <row r="10" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-    </row>
-    <row r="11" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="101"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-    </row>
-    <row r="12" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="56" t="s">
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+    </row>
+    <row r="10" spans="1:11" ht="21.9" customHeight="1">
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+    </row>
+    <row r="11" spans="1:11" ht="21.9" customHeight="1">
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+    </row>
+    <row r="12" spans="1:11" ht="21.9" customHeight="1">
+      <c r="C12" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56" t="s">
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="102"/>
-    </row>
-    <row r="13" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="102"/>
-    </row>
-    <row r="14" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="101" t="s">
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="54"/>
+    </row>
+    <row r="13" spans="1:11" ht="21.9" customHeight="1">
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="54"/>
+    </row>
+    <row r="14" spans="1:11" ht="21.9" customHeight="1">
+      <c r="A14" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-    </row>
-    <row r="15" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="101"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-    </row>
-    <row r="16" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="101"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-    </row>
-    <row r="17" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="56" t="s">
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+    </row>
+    <row r="15" spans="1:11" ht="21.9" customHeight="1">
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+    </row>
+    <row r="16" spans="1:11" ht="21.9" customHeight="1">
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+    </row>
+    <row r="17" spans="1:10" ht="21.9" customHeight="1">
+      <c r="C17" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56" t="s">
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="102"/>
-    </row>
-    <row r="18" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="102"/>
-    </row>
-    <row r="19" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="101" t="s">
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="54"/>
+    </row>
+    <row r="18" spans="1:10" ht="21.9" customHeight="1">
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="54"/>
+    </row>
+    <row r="19" spans="1:10" ht="21.9" customHeight="1">
+      <c r="A19" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="101"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-    </row>
-    <row r="20" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-    </row>
-    <row r="21" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-    </row>
-    <row r="22" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="56" t="s">
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+    </row>
+    <row r="20" spans="1:10" ht="21.9" customHeight="1">
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+    </row>
+    <row r="21" spans="1:10" ht="21.9" customHeight="1">
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+    </row>
+    <row r="22" spans="1:10" ht="21.9" customHeight="1">
+      <c r="C22" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56" t="s">
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="102"/>
-    </row>
-    <row r="23" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="102"/>
-    </row>
-    <row r="24" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="101" t="s">
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="54"/>
+    </row>
+    <row r="23" spans="1:10" ht="21.9" customHeight="1">
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="54"/>
+    </row>
+    <row r="24" spans="1:10" ht="21.9" customHeight="1">
+      <c r="A24" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-    </row>
-    <row r="25" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="101"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-    </row>
-    <row r="26" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="101"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-    </row>
-    <row r="27" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="56">
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+    </row>
+    <row r="25" spans="1:10" ht="21.9" customHeight="1">
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+    </row>
+    <row r="26" spans="1:10" ht="21.9" customHeight="1">
+      <c r="A26" s="59"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+    </row>
+    <row r="27" spans="1:10" ht="21.9" customHeight="1">
+      <c r="A27" s="55">
         <v>10</v>
       </c>
-      <c r="B27" s="56">
+      <c r="B27" s="55">
         <v>9</v>
       </c>
-      <c r="C27" s="56">
+      <c r="C27" s="55">
         <v>8</v>
       </c>
-      <c r="D27" s="56">
+      <c r="D27" s="55">
         <v>7</v>
       </c>
-      <c r="E27" s="56">
+      <c r="E27" s="55">
         <v>6</v>
       </c>
-      <c r="F27" s="56">
+      <c r="F27" s="55">
         <v>5</v>
       </c>
-      <c r="G27" s="56">
+      <c r="G27" s="55">
         <v>4</v>
       </c>
-      <c r="H27" s="56">
+      <c r="H27" s="55">
         <v>3</v>
       </c>
-      <c r="I27" s="56">
+      <c r="I27" s="55">
         <v>2</v>
       </c>
-      <c r="J27" s="56">
+      <c r="J27" s="55">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-    </row>
-    <row r="29" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="103" t="s">
+    <row r="28" spans="1:10" ht="21.9" customHeight="1">
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+    </row>
+    <row r="29" spans="1:10" ht="21.9" customHeight="1"/>
+    <row r="30" spans="1:10" ht="21.9" customHeight="1">
+      <c r="A30" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="103"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-    </row>
-    <row r="31" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="103"/>
-      <c r="B31" s="103"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+    </row>
+    <row r="31" spans="1:10" ht="23.1" customHeight="1">
+      <c r="A31" s="56"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A30:J31"/>
+    <mergeCell ref="A19:J21"/>
+    <mergeCell ref="C12:E13"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:J8"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A4:J5"/>
     <mergeCell ref="A24:J26"/>
@@ -2345,11 +2344,11 @@
     <mergeCell ref="A2:J3"/>
     <mergeCell ref="A9:J11"/>
     <mergeCell ref="A14:J16"/>
-    <mergeCell ref="A19:J21"/>
-    <mergeCell ref="C12:E13"/>
-    <mergeCell ref="F12:H13"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A30:J31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2358,104 +2357,104 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8FA5B55-8EE2-4FE3-A3D0-B3581581633A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H10" sqref="H10:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="13" width="9.109375" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:17" ht="21.75" customHeight="1">
+      <c r="A1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:17" ht="15" customHeight="1">
+      <c r="A2" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
+    <row r="3" spans="1:17" ht="31.5" customHeight="1">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="54" t="s">
+    <row r="4" spans="1:17" ht="18" customHeight="1">
+      <c r="C4" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
+    <row r="5" spans="1:17" ht="18" customHeight="1">
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="18">
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -2467,7 +2466,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="23.25" customHeight="1">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
@@ -2483,7 +2482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2495,11 +2494,11 @@
       <c r="K8" s="3"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="60" t="s">
+    <row r="9" spans="1:17" ht="16.5" customHeight="1">
+      <c r="C9" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="60"/>
+      <c r="D9" s="69"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -2512,11 +2511,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="33" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+    <row r="10" spans="1:17" ht="33.6">
+      <c r="A10" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="56"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="45" t="s">
         <v>2</v>
       </c>
@@ -2532,18 +2531,18 @@
       <c r="G10" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="59" t="s">
+      <c r="H10" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59" t="s">
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-    </row>
-    <row r="11" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+    </row>
+    <row r="11" spans="1:17" ht="24.9" customHeight="1">
       <c r="A11" s="46" t="s">
         <v>4</v>
       </c>
@@ -2564,21 +2563,21 @@
       <c r="G11" s="49">
         <v>120</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="67">
         <v>43836</v>
       </c>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57">
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67">
         <v>43831</v>
       </c>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
       <c r="N11" s="51">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="24.9" customHeight="1">
       <c r="A12" s="46" t="s">
         <v>4</v>
       </c>
@@ -2599,21 +2598,21 @@
       <c r="G12" s="49">
         <v>180</v>
       </c>
-      <c r="H12" s="58" t="s">
+      <c r="H12" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="57">
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="67">
         <v>43811</v>
       </c>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
       <c r="N12" s="51">
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="24.9" customHeight="1">
       <c r="A13" s="46" t="s">
         <v>4</v>
       </c>
@@ -2634,21 +2633,21 @@
       <c r="G13" s="49">
         <v>150</v>
       </c>
-      <c r="H13" s="57">
+      <c r="H13" s="67">
         <v>44623</v>
       </c>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="57">
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="67">
         <v>44384</v>
       </c>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
       <c r="N13" s="52" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="24.9" customHeight="1">
       <c r="A14" s="46" t="s">
         <v>4</v>
       </c>
@@ -2668,21 +2667,21 @@
       <c r="G14" s="49">
         <v>120</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="67">
         <v>44655</v>
       </c>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58" t="s">
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
       <c r="N14" s="51">
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="24.9" customHeight="1">
       <c r="A15" s="46" t="s">
         <v>4</v>
       </c>
@@ -2703,21 +2702,21 @@
       <c r="G15" s="49">
         <v>120</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="67">
         <v>43781</v>
       </c>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="57">
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="67">
         <v>43590</v>
       </c>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
       <c r="N15" s="53">
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="24.9" customHeight="1">
       <c r="A16" s="46" t="s">
         <v>4</v>
       </c>
@@ -2737,21 +2736,21 @@
       <c r="G16" s="49">
         <v>150</v>
       </c>
-      <c r="H16" s="58" t="s">
+      <c r="H16" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58" t="s">
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
       <c r="N16" s="53">
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2762,48 +2761,48 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="C18" s="35"/>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="62" t="s">
+      <c r="F18" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-    </row>
-    <row r="19" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+    </row>
+    <row r="19" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="C19" s="35"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-    </row>
-    <row r="20" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-    </row>
-    <row r="21" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+    </row>
+    <row r="20" spans="2:12" ht="17.100000000000001" customHeight="1">
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+    </row>
+    <row r="21" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="B21" s="25" t="s">
         <v>41</v>
       </c>
@@ -2818,35 +2817,35 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="61" t="s">
+    <row r="22" spans="2:12" ht="17.100000000000001" customHeight="1">
+      <c r="B22" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-    </row>
-    <row r="23" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-    </row>
-    <row r="24" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+    </row>
+    <row r="23" spans="2:12" ht="15" customHeight="1">
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+    </row>
+    <row r="24" spans="2:12" ht="15" customHeight="1">
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -2859,7 +2858,7 @@
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -2870,7 +2869,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2881,7 +2880,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2892,7 +2891,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2903,7 +2902,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2914,7 +2913,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2925,7 +2924,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2936,7 +2935,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="2:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="17.100000000000001" customHeight="1">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2947,7 +2946,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:11" ht="15">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2958,7 +2957,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:11" ht="15" customHeight="1">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2969,7 +2968,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:11" ht="15" customHeight="1">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2982,20 +2981,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B22:L23"/>
-    <mergeCell ref="F18:L20"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K12:M12"/>
     <mergeCell ref="C4:K5"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A10:B10"/>
@@ -3005,6 +2990,20 @@
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="A2:M3"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B22:L23"/>
+    <mergeCell ref="F18:L20"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3013,258 +3012,246 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5337F5B-A7D0-4F33-A094-36AA4DA3D21D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="11" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="8" max="11" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1">
+      <c r="A1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+    <row r="2" spans="1:12" ht="31.5" customHeight="1">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+    <row r="3" spans="1:12" ht="18" customHeight="1">
+      <c r="A3" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
     </row>
-    <row r="4" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
+    <row r="4" spans="1:12" ht="10.5" customHeight="1">
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
     </row>
-    <row r="6" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="38.25" customHeight="1">
       <c r="A6" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
       <c r="E6" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="68"/>
+      <c r="G6" s="71"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-    </row>
-    <row r="7" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+    </row>
+    <row r="7" spans="1:12" ht="48" customHeight="1">
       <c r="A7" s="39">
         <v>1</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="67" t="s">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="65"/>
-    </row>
-    <row r="8" spans="1:12" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="73"/>
+    </row>
+    <row r="8" spans="1:12" ht="81" customHeight="1">
       <c r="A8" s="39">
         <v>2</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="65" t="s">
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="65"/>
-    </row>
-    <row r="9" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="73"/>
+    </row>
+    <row r="9" spans="1:12" ht="58.5" customHeight="1">
       <c r="A9" s="39">
         <v>3</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="65" t="s">
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="65"/>
-    </row>
-    <row r="10" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="73"/>
+    </row>
+    <row r="10" spans="1:12" ht="52.5" customHeight="1">
       <c r="A10" s="39">
         <v>4</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="64" t="s">
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="65"/>
-    </row>
-    <row r="11" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="73"/>
+    </row>
+    <row r="11" spans="1:12" ht="61.5" customHeight="1">
       <c r="A11" s="39">
         <v>5</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="64" t="s">
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="65"/>
-    </row>
-    <row r="12" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="73"/>
+    </row>
+    <row r="12" spans="1:12" ht="58.5" customHeight="1">
       <c r="A12" s="39">
         <v>6</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="64" t="s">
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="65"/>
-    </row>
-    <row r="13" spans="1:12" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="73"/>
+    </row>
+    <row r="13" spans="1:12" ht="81" customHeight="1">
       <c r="A13" s="39">
         <v>7</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="64" t="s">
+      <c r="F13" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="65"/>
-    </row>
-    <row r="14" spans="1:12" s="43" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="73"/>
+    </row>
+    <row r="14" spans="1:12" s="43" customFormat="1" ht="84.75" customHeight="1">
       <c r="A14" s="39">
         <v>8</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="65"/>
+      <c r="G14" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A3:G4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="J6:L6"/>
@@ -3276,6 +3263,18 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3285,101 +3284,101 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85887105-5750-4284-8898-CAECE3131B34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="7" customWidth="1"/>
-    <col min="2" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="11" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="7" customWidth="1"/>
+    <col min="2" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="11" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1">
+      <c r="A1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+    <row r="2" spans="1:12" ht="31.5" customHeight="1">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+    <row r="3" spans="1:12" ht="18" customHeight="1">
+      <c r="A3" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
     </row>
-    <row r="4" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
+    <row r="4" spans="1:12" ht="10.5" customHeight="1">
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
     </row>
-    <row r="6" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="38.25" customHeight="1">
       <c r="A6" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
       <c r="E6" s="38" t="s">
         <v>47</v>
       </c>
@@ -3389,21 +3388,21 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
-      <c r="J6" s="66" t="s">
+      <c r="J6" s="76" t="s">
         <v>52</v>
       </c>
       <c r="K6" s="79"/>
       <c r="L6" s="79"/>
     </row>
-    <row r="7" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="24.9" customHeight="1">
       <c r="A7" s="40">
         <v>1</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="39" t="s">
         <v>48</v>
       </c>
@@ -3411,15 +3410,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="24.9" customHeight="1">
       <c r="A8" s="40">
         <v>2</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
       <c r="E8" s="39" t="s">
         <v>48</v>
       </c>
@@ -3427,15 +3426,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="45.75" customHeight="1">
       <c r="A9" s="39">
         <v>3</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
       <c r="E9" s="39" t="s">
         <v>53</v>
       </c>
@@ -3443,15 +3442,15 @@
         <v>84.99</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="45.75" customHeight="1">
       <c r="A10" s="39">
         <v>4</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
       <c r="E10" s="39" t="s">
         <v>53</v>
       </c>
@@ -3459,15 +3458,15 @@
         <v>84.99</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="24.9" customHeight="1">
       <c r="A11" s="40">
         <v>5</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
       <c r="E11" s="39" t="s">
         <v>53</v>
       </c>
@@ -3475,15 +3474,15 @@
         <v>84.99</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="40.5" customHeight="1">
       <c r="A12" s="39">
         <v>6</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
       <c r="E12" s="39" t="s">
         <v>53</v>
       </c>
@@ -3491,7 +3490,7 @@
         <v>84.99</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="24.9" customHeight="1">
       <c r="A13" s="37"/>
       <c r="B13" s="78"/>
       <c r="C13" s="78"/>
@@ -3499,7 +3498,7 @@
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
     </row>
-    <row r="14" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="24.9" customHeight="1">
       <c r="A14" s="78" t="s">
         <v>58</v>
       </c>
@@ -3509,15 +3508,15 @@
       <c r="E14" s="78"/>
       <c r="F14" s="78"/>
     </row>
-    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="39" t="s">
         <v>47</v>
       </c>
@@ -3525,15 +3524,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="40">
         <v>1</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
       <c r="E16" s="40" t="s">
         <v>61</v>
       </c>
@@ -3541,15 +3540,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="40">
         <v>2</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="77"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="40" t="s">
         <v>62</v>
       </c>
@@ -3557,28 +3556,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
+    <row r="19" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A19" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="73">
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="81">
         <f>F17+F16+F12+F11+F10+F9</f>
         <v>387.96000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="73"/>
-    </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A20" s="73"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="81"/>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" customHeight="1">
       <c r="A21" s="41"/>
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
@@ -3587,11 +3586,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A3:G4"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A19:E20"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="B10:D10"/>
@@ -3600,11 +3599,11 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A19:E20"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3614,90 +3613,90 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="9" max="10" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" customWidth="1"/>
+    <col min="9" max="10" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:15" ht="21.75" customHeight="1">
+      <c r="A1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:15" ht="15" customHeight="1">
+      <c r="A2" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+    <row r="3" spans="1:15" ht="31.5" customHeight="1">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="17.399999999999999">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="17.399999999999999">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="18">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -3709,7 +3708,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="23.25" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
@@ -3719,46 +3718,46 @@
       <c r="F7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
       <c r="I7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="80" t="s">
+    <row r="8" spans="1:15" ht="15">
+      <c r="A8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="16.5" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="89" t="s">
+      <c r="D9" s="63"/>
+      <c r="E9" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="89"/>
+      <c r="F9" s="91"/>
       <c r="G9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="82" t="s">
+      <c r="H9" s="92" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="10" t="s">
@@ -3769,132 +3768,132 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
       <c r="G10" s="11">
         <v>0.01</v>
       </c>
-      <c r="H10" s="83"/>
-      <c r="I10" s="85">
+      <c r="H10" s="93"/>
+      <c r="I10" s="95">
         <v>35000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
       <c r="G11" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H11" s="83"/>
-      <c r="I11" s="85"/>
-    </row>
-    <row r="12" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="93"/>
+      <c r="I11" s="95"/>
+    </row>
+    <row r="12" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
       <c r="G12" s="11">
         <v>0.02</v>
       </c>
-      <c r="H12" s="83"/>
-      <c r="I12" s="85"/>
-    </row>
-    <row r="13" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="93"/>
+      <c r="I12" s="95"/>
+    </row>
+    <row r="13" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
       <c r="G13" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H13" s="83"/>
+      <c r="H13" s="93"/>
       <c r="I13" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A14" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
       <c r="G14" s="18">
         <v>0.03</v>
       </c>
-      <c r="H14" s="84"/>
+      <c r="H14" s="94"/>
       <c r="I14" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="86" t="s">
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="86"/>
-      <c r="I15" s="87"/>
-    </row>
-    <row r="16" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="88"/>
+      <c r="I15" s="89"/>
+    </row>
+    <row r="16" spans="1:15" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="87" t="s">
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.6">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -3905,170 +3904,170 @@
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="80" t="s">
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-    </row>
-    <row r="19" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+    </row>
+    <row r="19" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="89" t="s">
+      <c r="C19" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89" t="s">
+      <c r="D19" s="91"/>
+      <c r="E19" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="89"/>
+      <c r="F19" s="91"/>
       <c r="G19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="82" t="s">
+      <c r="H19" s="92" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
       <c r="G20" s="11">
         <v>0.01</v>
       </c>
-      <c r="H20" s="83"/>
-      <c r="I20" s="85">
+      <c r="H20" s="93"/>
+      <c r="I20" s="95">
         <v>75000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
       <c r="G21" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H21" s="83"/>
-      <c r="I21" s="85"/>
-    </row>
-    <row r="22" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="93"/>
+      <c r="I21" s="95"/>
+    </row>
+    <row r="22" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
       <c r="G22" s="11">
         <v>0.02</v>
       </c>
-      <c r="H22" s="83"/>
-      <c r="I22" s="85"/>
-    </row>
-    <row r="23" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="93"/>
+      <c r="I22" s="95"/>
+    </row>
+    <row r="23" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
       <c r="G23" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H23" s="83"/>
+      <c r="H23" s="93"/>
       <c r="I23" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A24" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
       <c r="G24" s="18">
         <v>0.03</v>
       </c>
-      <c r="H24" s="84"/>
+      <c r="H24" s="94"/>
       <c r="I24" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="86" t="s">
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="86"/>
-      <c r="I25" s="87"/>
-    </row>
-    <row r="26" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="88"/>
+      <c r="I25" s="89"/>
+    </row>
+    <row r="26" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="87" t="s">
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.6">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -4079,195 +4078,248 @@
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="80" t="s">
+    <row r="28" spans="1:9" ht="15">
+      <c r="A28" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-    </row>
-    <row r="29" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+    </row>
+    <row r="29" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="89" t="s">
+      <c r="C29" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89" t="s">
+      <c r="D29" s="91"/>
+      <c r="E29" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="89"/>
+      <c r="F29" s="91"/>
       <c r="G29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="82" t="s">
+      <c r="H29" s="92" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
       <c r="G30" s="11">
         <v>0.01</v>
       </c>
-      <c r="H30" s="83"/>
-      <c r="I30" s="85">
+      <c r="H30" s="93"/>
+      <c r="I30" s="95">
         <v>84000</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
       <c r="G31" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H31" s="83"/>
-      <c r="I31" s="85"/>
-    </row>
-    <row r="32" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="93"/>
+      <c r="I31" s="95"/>
+    </row>
+    <row r="32" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
       <c r="G32" s="11">
         <v>0.02</v>
       </c>
-      <c r="H32" s="83"/>
-      <c r="I32" s="85"/>
-    </row>
-    <row r="33" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="93"/>
+      <c r="I32" s="95"/>
+    </row>
+    <row r="33" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
       <c r="G33" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H33" s="83"/>
+      <c r="H33" s="93"/>
       <c r="I33" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A34" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
       <c r="G34" s="18">
         <v>0.03</v>
       </c>
-      <c r="H34" s="84"/>
+      <c r="H34" s="94"/>
       <c r="I34" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="86" t="s">
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="86"/>
-      <c r="I35" s="87"/>
-    </row>
-    <row r="36" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="88"/>
+      <c r="I35" s="89"/>
+    </row>
+    <row r="36" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="87" t="s">
+      <c r="C36" s="90"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="93"/>
-      <c r="B38" s="93"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="92" t="s">
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="86"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="92"/>
-      <c r="I38" s="92"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="93"/>
-      <c r="B39" s="93"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="86"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I3"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="H19:H24"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="G38:I39"/>
     <mergeCell ref="A38:F39"/>
     <mergeCell ref="G7:H7"/>
@@ -4284,59 +4336,6 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="I30:I32"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="H19:H24"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="D4:F5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I3"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="I10:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4345,99 +4344,99 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00880A81-50F2-4F65-9B16-189233425CE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="A2" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
+    <row r="3" spans="1:12" ht="31.5" customHeight="1">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+    <row r="4" spans="1:12" ht="18" customHeight="1">
+      <c r="A4" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-    </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-    </row>
-    <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:12" ht="18" customHeight="1">
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+    </row>
+    <row r="6" spans="1:12" ht="13.5" customHeight="1">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -4447,62 +4446,62 @@
       <c r="H6" s="7"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="23.25" customHeight="1">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="100" t="s">
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="100"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
       <c r="K7" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
+    <row r="8" spans="1:12" ht="15">
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="95" t="s">
+    <row r="9" spans="1:12" ht="21" customHeight="1">
+      <c r="A9" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95" t="s">
+      <c r="B9" s="98"/>
+      <c r="C9" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="97" t="s">
+      <c r="D9" s="98"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95" t="s">
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="95" t="s">
+      <c r="J9" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="99" t="s">
+      <c r="K9" s="102" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
-      <c r="B10" s="95"/>
+    <row r="10" spans="1:12" ht="21" customHeight="1">
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="31" t="s">
         <v>34</v>
       </c>
@@ -4521,13 +4520,13 @@
       <c r="H10" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="99"/>
-    </row>
-    <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="95"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="102"/>
+    </row>
+    <row r="11" spans="1:12" ht="21" customHeight="1">
+      <c r="A11" s="98"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="31" t="s">
         <v>35</v>
       </c>
@@ -4546,11 +4545,11 @@
       <c r="H11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="99"/>
-    </row>
-    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="102"/>
+    </row>
+    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -4569,7 +4568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -4588,7 +4587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -4607,7 +4606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
@@ -4626,7 +4625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -4645,7 +4644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
@@ -4664,7 +4663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -4683,7 +4682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -4702,7 +4701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
@@ -4721,7 +4720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -4740,42 +4739,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15">
       <c r="B23" s="20"/>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+    </row>
+    <row r="24" spans="1:11" ht="15">
       <c r="B24" s="20"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-    </row>
-    <row r="25" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+    </row>
+    <row r="25" spans="1:11" ht="9.75" customHeight="1">
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1">
       <c r="A26" s="25" t="s">
         <v>41</v>
       </c>
@@ -4790,35 +4789,35 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="61" t="s">
+    <row r="27" spans="1:11" ht="15" customHeight="1">
+      <c r="A27" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-    </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-    </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1">
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1">
       <c r="A29" s="30"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -4831,7 +4830,7 @@
       <c r="J29" s="30"/>
       <c r="K29" s="30"/>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15" customHeight="1">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -4844,7 +4843,7 @@
       <c r="J30" s="30"/>
       <c r="K30" s="30"/>
     </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15" customHeight="1">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
@@ -4859,12 +4858,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="E23:I25"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="A4:K5"/>
-    <mergeCell ref="D23:D25"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A9:B11"/>
     <mergeCell ref="I7:J7"/>
@@ -4876,6 +4869,12 @@
     <mergeCell ref="K9:K11"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="A2:K3"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="E23:I25"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4884,14 +4883,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A177FEDA-3B79-424B-BAC7-7DCE34BF4973}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
